--- a/annual_data/2018.xlsx
+++ b/annual_data/2018.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-12-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-12-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 9, 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 8, 'job_name': '山西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2019-12-01 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2019-12-01 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-10-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-10-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 9, 'job_name': '辽宁省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-11-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '中央', 'job_name': '中央农业部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2009-11-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央农业部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 9, 'job_name': '吉林省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-10-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2016-10-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 0, 'job_name': '湖北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-12-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-12-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 8, 'job_name': '吉林省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 8, 'job_name': '上海市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-01-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2017-01-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 0, 'job_name': '山东省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-03-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '党委', 'rank': 9, 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-06-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2017-06-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '人大', 'rank': 9, 'job_name': '宁夏回族自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-10-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-10-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 9, 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-10-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2016-10-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 8, 'job_name': '浙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-08-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 9, 'job_name': '浙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2015-07-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 0, 'job_name': '安徽省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2021-01-01 00:00:00'), 'location': '安徽省', 'type': '政府/国务院', 'rank': 0, 'job_name': '安徽省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 9, 'job_name': '福建省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-03-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2016-03-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 9, 'job_name': '河南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-03-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-03-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-02-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-02-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 0, 'job_name': '上海市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-09-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '海南省', 'type': '党委', 'rank': 9, 'job_name': '海南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '海南省', 'type': '党委', 'rank': 9, 'job_name': '海南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '海南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '海南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2015-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2015-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 8, 'job_name': '四川省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-01-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-01-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-07-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-07-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'type': '党委', 'rank': 9, 'job_name': '贵州省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2015-04-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2015-04-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'type': '党委', 'rank': 0, 'job_name': '贵州省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-09-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'job_name': '贵州省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-09-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '贵州省', 'type': '政府/国务院', 'rank': 9, 'job_name': '贵州省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2019-10-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 9, 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2016-08-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 9, 'job_name': '云南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-12-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '云南省', 'job_name': '云南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2016-12-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '云南省', 'type': '政府/国务院', 'rank': 0, 'job_name': '云南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-07-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-07-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 9, 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 9, 'job_name': '甘肃省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 9, 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2016-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2016-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 9, 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-05-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '中央', 'job_name': '中央环境保护部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2017-05-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央环境保护部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-06-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-04-01 00:00:00'), 'end_time': Timestamp('2020-06-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 0, 'job_name': '青海省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 0, 'job_name': '辽宁省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2017-10-01 00:00:00'), 'end_time': Timestamp('2020-04-01 00:00:00'), 'location': '辽宁省', 'type': '政府/国务院', 'rank': 0, 'job_name': '辽宁省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
